--- a/fortune.xlsx
+++ b/fortune.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,6 +1376,366 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>와우~ 애정 운이 좋게 반영되는 하루 이군요. 망설이지 말고 좋아하는 상대에게 조금씩 접근해 보세요. 무언가 시도를 해야 되요. 생각지도 못한 해피한 하루를 보낼 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>와우~ 나의 매력과 진가를 발휘 하겠군요. 솔직하게 마음을 털어 놓으면 상대방의 마음을 사로잡을 수 있어요. 사랑의 행운이 당신 곁에 있으니 적극적으로 움직이세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>가족과 함께 부모님 댁을 방문하는 것이 어떨까요? 일 적인 스트레스를 뒤로 하고 나를 사랑하고 지지해 주는 이들과 함께 하는 시간이 필요하군요. 중요한 사안은 가족과 의논하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>오늘은 무엇보다 재물운이 좋아요. 금융 관련된 상품으로부터 좋은 소식이 기대되네요. 이른 아침부터 좋은 소식이 있을 예정이니 평소보다 기분 좋게 아침을 시작하세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>오늘은 인연의 날이에요. 사랑하는 사람과 즐거운 한때를 계획해보세요. 그 어느 때보다 공감하고 끈끈해질 수 있는 기회가 될 거예요. 마음속에 담아둔 감정이 있다면 오늘 풀어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>상황을 정리하면서 주변을 살펴보는 시간을 가지세요. 무슨 일이든지 최선을 다하는 자세로 사는 것도 참 멋있는 삶이지만, 오늘은 평범하게 여유 있는 시간을 만들어 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>와우~ 애정 운이 좋게 반영되는 하루 이군요. 망설이지 말고 좋아하는 상대에게 조금씩 접근해 보세요. 무언가 시도를 해야 되요. 생각지도 못한 해피한 하루를 보낼 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>와우~ 나의 매력과 진가를 발휘 하겠군요. 솔직하게 마음을 털어 놓으면 상대방의 마음을 사로잡을 수 있어요. 사랑의 행운이 당신 곁에 있으니 적극적으로 움직이세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>가족과 함께 부모님 댁을 방문하는 것이 어떨까요? 일 적인 스트레스를 뒤로 하고 나를 사랑하고 지지해 주는 이들과 함께 하는 시간이 필요하군요. 중요한 사안은 가족과 의논하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>오늘은 무엇보다 재물운이 좋아요. 금융 관련된 상품으로부터 좋은 소식이 기대되네요. 이른 아침부터 좋은 소식이 있을 예정이니 평소보다 기분 좋게 아침을 시작하세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>오늘은 인연의 날이에요. 사랑하는 사람과 즐거운 한때를 계획해보세요. 그 어느 때보다 공감하고 끈끈해질 수 있는 기회가 될 거예요. 마음속에 담아둔 감정이 있다면 오늘 풀어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>상황을 정리하면서 주변을 살펴보는 시간을 가지세요. 무슨 일이든지 최선을 다하는 자세로 사는 것도 참 멋있는 삶이지만, 오늘은 평범하게 여유 있는 시간을 만들어 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>와우~ 애정 운이 좋게 반영되는 하루 이군요. 망설이지 말고 좋아하는 상대에게 조금씩 접근해 보세요. 무언가 시도를 해야 되요. 생각지도 못한 해피한 하루를 보낼 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>와우~ 나의 매력과 진가를 발휘 하겠군요. 솔직하게 마음을 털어 놓으면 상대방의 마음을 사로잡을 수 있어요. 사랑의 행운이 당신 곁에 있으니 적극적으로 움직이세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>가족과 함께 부모님 댁을 방문하는 것이 어떨까요? 일 적인 스트레스를 뒤로 하고 나를 사랑하고 지지해 주는 이들과 함께 하는 시간이 필요하군요. 중요한 사안은 가족과 의논하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>오늘은 무엇보다 재물운이 좋아요. 금융 관련된 상품으로부터 좋은 소식이 기대되네요. 이른 아침부터 좋은 소식이 있을 예정이니 평소보다 기분 좋게 아침을 시작하세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>오늘은 인연의 날이에요. 사랑하는 사람과 즐거운 한때를 계획해보세요. 그 어느 때보다 공감하고 끈끈해질 수 있는 기회가 될 거예요. 마음속에 담아둔 감정이 있다면 오늘 풀어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>상황을 정리하면서 주변을 살펴보는 시간을 가지세요. 무슨 일이든지 최선을 다하는 자세로 사는 것도 참 멋있는 삶이지만, 오늘은 평범하게 여유 있는 시간을 만들어 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>와우~ 애정 운이 좋게 반영되는 하루 이군요. 망설이지 말고 좋아하는 상대에게 조금씩 접근해 보세요. 무언가 시도를 해야 되요. 생각지도 못한 해피한 하루를 보낼 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>와우~ 나의 매력과 진가를 발휘 하겠군요. 솔직하게 마음을 털어 놓으면 상대방의 마음을 사로잡을 수 있어요. 사랑의 행운이 당신 곁에 있으니 적극적으로 움직이세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>가족과 함께 부모님 댁을 방문하는 것이 어떨까요? 일 적인 스트레스를 뒤로 하고 나를 사랑하고 지지해 주는 이들과 함께 하는 시간이 필요하군요. 중요한 사안은 가족과 의논하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>오늘은 무엇보다 재물운이 좋아요. 금융 관련된 상품으로부터 좋은 소식이 기대되네요. 이른 아침부터 좋은 소식이 있을 예정이니 평소보다 기분 좋게 아침을 시작하세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>오늘은 인연의 날이에요. 사랑하는 사람과 즐거운 한때를 계획해보세요. 그 어느 때보다 공감하고 끈끈해질 수 있는 기회가 될 거예요. 마음속에 담아둔 감정이 있다면 오늘 풀어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>상황을 정리하면서 주변을 살펴보는 시간을 가지세요. 무슨 일이든지 최선을 다하는 자세로 사는 것도 참 멋있는 삶이지만, 오늘은 평범하게 여유 있는 시간을 만들어 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>와우~ 애정 운이 좋게 반영되는 하루 이군요. 망설이지 말고 좋아하는 상대에게 조금씩 접근해 보세요. 무언가 시도를 해야 되요. 생각지도 못한 해피한 하루를 보낼 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>와우~ 나의 매력과 진가를 발휘 하겠군요. 솔직하게 마음을 털어 놓으면 상대방의 마음을 사로잡을 수 있어요. 사랑의 행운이 당신 곁에 있으니 적극적으로 움직이세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>가족과 함께 부모님 댁을 방문하는 것이 어떨까요? 일 적인 스트레스를 뒤로 하고 나를 사랑하고 지지해 주는 이들과 함께 하는 시간이 필요하군요. 중요한 사안은 가족과 의논하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>오늘은 무엇보다 재물운이 좋아요. 금융 관련된 상품으로부터 좋은 소식이 기대되네요. 이른 아침부터 좋은 소식이 있을 예정이니 평소보다 기분 좋게 아침을 시작하세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>오늘은 인연의 날이에요. 사랑하는 사람과 즐거운 한때를 계획해보세요. 그 어느 때보다 공감하고 끈끈해질 수 있는 기회가 될 거예요. 마음속에 담아둔 감정이 있다면 오늘 풀어보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>상황을 정리하면서 주변을 살펴보는 시간을 가지세요. 무슨 일이든지 최선을 다하는 자세로 사는 것도 참 멋있는 삶이지만, 오늘은 평범하게 여유 있는 시간을 만들어 보세요.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
